--- a/projects/test_building/input/Scenario_PV_PenetrationRate.xlsx
+++ b/projects/test_building/input/Scenario_PV_PenetrationRate.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1760" yWindow="-20780" windowWidth="33060" windowHeight="19160"/>
+    <workbookView xWindow="-1755" yWindow="-20775" windowWidth="33060" windowHeight="19155"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
+    <sheet name="updated" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>id_region</t>
   </si>
@@ -217,8 +217,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AU18" totalsRowShown="0">
-  <autoFilter ref="A1:AU18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AU69" totalsRowShown="0">
+  <autoFilter ref="A1:AU69"/>
   <tableColumns count="47">
     <tableColumn id="48" name="id_scenario"/>
     <tableColumn id="1" name="id_region"/>
@@ -577,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU18"/>
+  <dimension ref="A1:AU69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AR63" sqref="AR63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -732,7 +733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -875,7 +876,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>0.51000000000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3161,6 +3162,7299 @@
       </c>
       <c r="AU18">
         <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>0.11</v>
+      </c>
+      <c r="H19">
+        <v>0.12</v>
+      </c>
+      <c r="I19">
+        <v>0.13</v>
+      </c>
+      <c r="J19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O19">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P19">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q19">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R19">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S19">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T19">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U19">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.27115384615384625</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.29230769230769238</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.31346153846153851</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.33461538461538465</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.35576923076923078</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.37692307692307692</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.39807692307692305</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.41923076923076918</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.44038461538461532</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.48269230769230759</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.50384615384615372</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.56730769230769229</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.58846153846153848</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.60961538461538467</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.63076923076923086</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0.67307692307692324</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0.69423076923076943</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0.71538461538461562</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0.73653846153846181</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0.77884615384615419</v>
+      </c>
+      <c r="AU19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>0.11</v>
+      </c>
+      <c r="H20">
+        <v>0.12</v>
+      </c>
+      <c r="I20">
+        <v>0.13</v>
+      </c>
+      <c r="J20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M20">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N20">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O20">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P20">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q20">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R20">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S20">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T20">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U20">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.27115384615384625</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.29230769230769238</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.31346153846153851</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.33461538461538465</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.35576923076923078</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.37692307692307692</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.39807692307692305</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.41923076923076918</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.44038461538461532</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.48269230769230759</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.50384615384615372</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.56730769230769229</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0.58846153846153848</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.60961538461538467</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.63076923076923086</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0.67307692307692324</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.69423076923076943</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0.71538461538461562</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0.73653846153846181</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.77884615384615419</v>
+      </c>
+      <c r="AU20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>0.11</v>
+      </c>
+      <c r="H21">
+        <v>0.12</v>
+      </c>
+      <c r="I21">
+        <v>0.13</v>
+      </c>
+      <c r="J21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M21">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N21">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O21">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P21">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q21">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R21">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S21">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T21">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>0.11</v>
+      </c>
+      <c r="H22">
+        <v>0.12</v>
+      </c>
+      <c r="I22">
+        <v>0.13</v>
+      </c>
+      <c r="J22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M22">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N22">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O22">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P22">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q22">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R22">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S22">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T22">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>0.11</v>
+      </c>
+      <c r="H23">
+        <v>0.12</v>
+      </c>
+      <c r="I23">
+        <v>0.13</v>
+      </c>
+      <c r="J23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M23">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N23">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O23">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P23">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q23">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R23">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S23">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T23">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <v>0.11</v>
+      </c>
+      <c r="H24">
+        <v>0.12</v>
+      </c>
+      <c r="I24">
+        <v>0.13</v>
+      </c>
+      <c r="J24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M24">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N24">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P24">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q24">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R24">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S24">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T24">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>0.11</v>
+      </c>
+      <c r="H25">
+        <v>0.12</v>
+      </c>
+      <c r="I25">
+        <v>0.13</v>
+      </c>
+      <c r="J25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L25">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M25">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N25">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O25">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P25">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q25">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R25">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S25">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T25">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U25">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <v>0.11</v>
+      </c>
+      <c r="H26">
+        <v>0.12</v>
+      </c>
+      <c r="I26">
+        <v>0.13</v>
+      </c>
+      <c r="J26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M26">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N26">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O26">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P26">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q26">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R26">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S26">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T26">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <v>0.11</v>
+      </c>
+      <c r="H27">
+        <v>0.12</v>
+      </c>
+      <c r="I27">
+        <v>0.13</v>
+      </c>
+      <c r="J27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L27">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M27">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N27">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O27">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P27">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q27">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R27">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S27">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T27">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0.11</v>
+      </c>
+      <c r="H28">
+        <v>0.12</v>
+      </c>
+      <c r="I28">
+        <v>0.13</v>
+      </c>
+      <c r="J28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L28">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M28">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N28">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O28">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P28">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q28">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R28">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S28">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T28">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U28">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>311</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>0.11</v>
+      </c>
+      <c r="H29">
+        <v>0.12</v>
+      </c>
+      <c r="I29">
+        <v>0.13</v>
+      </c>
+      <c r="J29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M29">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N29">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O29">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P29">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q29">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R29">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S29">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T29">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U29">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>0.11</v>
+      </c>
+      <c r="H30">
+        <v>0.12</v>
+      </c>
+      <c r="I30">
+        <v>0.13</v>
+      </c>
+      <c r="J30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L30">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M30">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O30">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P30">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q30">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R30">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S30">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T30">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U30">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>313</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>0.11</v>
+      </c>
+      <c r="H31">
+        <v>0.12</v>
+      </c>
+      <c r="I31">
+        <v>0.13</v>
+      </c>
+      <c r="J31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M31">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N31">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O31">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P31">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q31">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R31">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S31">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T31">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U31">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>0.11</v>
+      </c>
+      <c r="H32">
+        <v>0.12</v>
+      </c>
+      <c r="I32">
+        <v>0.13</v>
+      </c>
+      <c r="J32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L32">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M32">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N32">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O32">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P32">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q32">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R32">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S32">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T32">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U32">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>315</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>0.11</v>
+      </c>
+      <c r="H33">
+        <v>0.12</v>
+      </c>
+      <c r="I33">
+        <v>0.13</v>
+      </c>
+      <c r="J33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L33">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M33">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N33">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O33">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P33">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q33">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R33">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S33">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T33">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U33">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <v>0.11</v>
+      </c>
+      <c r="H34">
+        <v>0.12</v>
+      </c>
+      <c r="I34">
+        <v>0.13</v>
+      </c>
+      <c r="J34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M34">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N34">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O34">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P34">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q34">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R34">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S34">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T34">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>0.11</v>
+      </c>
+      <c r="H35">
+        <v>0.12</v>
+      </c>
+      <c r="I35">
+        <v>0.13</v>
+      </c>
+      <c r="J35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L35">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N35">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O35">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P35">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q35">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R35">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S35">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T35">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U35">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.27115384615384602</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.29230769230769199</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.31346153846153901</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.33461538461538498</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.355769230769231</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0.37692307692307703</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.39807692307692299</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.41923076923076902</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0.44038461538461499</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.48269230769230798</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0.50384615384615405</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0.54615384615384599</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0.56730769230769196</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0.58846153846153804</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0.609615384615385</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0.63076923076923097</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0.65192307692307705</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0.69423076923076898</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0.71538461538461595</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0.73653846153846203</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0.757692307692308</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0.77884615384615397</v>
+      </c>
+      <c r="AU35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <v>0.11</v>
+      </c>
+      <c r="H36">
+        <v>0.12</v>
+      </c>
+      <c r="I36">
+        <v>0.13</v>
+      </c>
+      <c r="J36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L36">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M36">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N36">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O36">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P36">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q36">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R36">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S36">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T36">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U36">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V36">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W36">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X36">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y36">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z36">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA36">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB36">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC36">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD36">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE36">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF36">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG36">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH36">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI36">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ36">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK36">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL36">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM36">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN36">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO36">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP36">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ36">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR36">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS36">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT36">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU36">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+      <c r="G37">
+        <v>0.11</v>
+      </c>
+      <c r="H37">
+        <v>0.12</v>
+      </c>
+      <c r="I37">
+        <v>0.13</v>
+      </c>
+      <c r="J37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L37">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M37">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N37">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O37">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P37">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q37">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R37">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S37">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T37">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U37">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V37">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W37">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X37">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y37">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z37">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA37">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB37">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC37">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD37">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE37">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF37">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG37">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH37">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI37">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ37">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK37">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL37">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM37">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN37">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO37">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP37">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ37">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR37">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS37">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT37">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU37">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+      <c r="G38">
+        <v>0.11</v>
+      </c>
+      <c r="H38">
+        <v>0.12</v>
+      </c>
+      <c r="I38">
+        <v>0.13</v>
+      </c>
+      <c r="J38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L38">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M38">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N38">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O38">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P38">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q38">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R38">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S38">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T38">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U38">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V38">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W38">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X38">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y38">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z38">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA38">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB38">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC38">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD38">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE38">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF38">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG38">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH38">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI38">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ38">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK38">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL38">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM38">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN38">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO38">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP38">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ38">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR38">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS38">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT38">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU38">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+      <c r="G39">
+        <v>0.11</v>
+      </c>
+      <c r="H39">
+        <v>0.12</v>
+      </c>
+      <c r="I39">
+        <v>0.13</v>
+      </c>
+      <c r="J39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L39">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M39">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N39">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O39">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P39">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q39">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R39">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S39">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T39">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U39">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V39">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W39">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X39">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y39">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z39">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA39">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB39">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC39">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD39">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE39">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF39">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG39">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH39">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI39">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ39">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK39">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL39">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM39">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN39">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO39">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP39">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ39">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR39">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS39">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT39">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU39">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
+        <v>0.11</v>
+      </c>
+      <c r="H40">
+        <v>0.12</v>
+      </c>
+      <c r="I40">
+        <v>0.13</v>
+      </c>
+      <c r="J40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M40">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O40">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P40">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q40">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R40">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S40">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T40">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U40">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V40">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W40">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X40">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y40">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z40">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA40">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB40">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC40">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD40">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE40">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF40">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG40">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH40">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI40">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ40">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK40">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL40">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM40">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN40">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO40">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP40">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ40">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR40">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS40">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT40">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU40">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <v>0.11</v>
+      </c>
+      <c r="H41">
+        <v>0.12</v>
+      </c>
+      <c r="I41">
+        <v>0.13</v>
+      </c>
+      <c r="J41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L41">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M41">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N41">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O41">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P41">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q41">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R41">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S41">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T41">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U41">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V41">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W41">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X41">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y41">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z41">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA41">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB41">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC41">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD41">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE41">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF41">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG41">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH41">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI41">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ41">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK41">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL41">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM41">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN41">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO41">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP41">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ41">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR41">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS41">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT41">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU41">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42">
+        <v>0.11</v>
+      </c>
+      <c r="H42">
+        <v>0.12</v>
+      </c>
+      <c r="I42">
+        <v>0.13</v>
+      </c>
+      <c r="J42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L42">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M42">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N42">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O42">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P42">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q42">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R42">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S42">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T42">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U42">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V42">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W42">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X42">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y42">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z42">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA42">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB42">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC42">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD42">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE42">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF42">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG42">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH42">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI42">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ42">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK42">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL42">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM42">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN42">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO42">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP42">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ42">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR42">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS42">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT42">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU42">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>0.11</v>
+      </c>
+      <c r="H43">
+        <v>0.12</v>
+      </c>
+      <c r="I43">
+        <v>0.13</v>
+      </c>
+      <c r="J43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L43">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M43">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N43">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O43">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P43">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q43">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R43">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S43">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T43">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U43">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V43">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W43">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X43">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y43">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z43">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA43">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB43">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC43">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD43">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE43">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF43">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG43">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH43">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI43">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ43">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK43">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL43">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM43">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN43">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO43">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP43">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ43">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR43">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS43">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT43">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU43">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+      <c r="G44">
+        <v>0.11</v>
+      </c>
+      <c r="H44">
+        <v>0.12</v>
+      </c>
+      <c r="I44">
+        <v>0.13</v>
+      </c>
+      <c r="J44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L44">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M44">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N44">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O44">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P44">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q44">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R44">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S44">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T44">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U44">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V44">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W44">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X44">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y44">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z44">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA44">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB44">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC44">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD44">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE44">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF44">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG44">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH44">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI44">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ44">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK44">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL44">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM44">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN44">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO44">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP44">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ44">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR44">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS44">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT44">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU44">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>310</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45">
+        <v>0.1</v>
+      </c>
+      <c r="G45">
+        <v>0.11</v>
+      </c>
+      <c r="H45">
+        <v>0.12</v>
+      </c>
+      <c r="I45">
+        <v>0.13</v>
+      </c>
+      <c r="J45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L45">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M45">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N45">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O45">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P45">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q45">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R45">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S45">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T45">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U45">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V45">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W45">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X45">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y45">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z45">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA45">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB45">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC45">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD45">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE45">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF45">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG45">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH45">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI45">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ45">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK45">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL45">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM45">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN45">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO45">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP45">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ45">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR45">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS45">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT45">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU45">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>311</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+      <c r="G46">
+        <v>0.11</v>
+      </c>
+      <c r="H46">
+        <v>0.12</v>
+      </c>
+      <c r="I46">
+        <v>0.13</v>
+      </c>
+      <c r="J46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M46">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O46">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P46">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q46">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R46">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S46">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T46">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U46">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V46">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W46">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X46">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y46">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z46">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA46">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB46">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC46">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD46">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE46">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF46">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG46">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH46">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI46">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ46">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK46">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL46">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM46">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN46">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO46">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP46">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ46">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR46">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS46">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT46">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU46">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>312</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47">
+        <v>0.11</v>
+      </c>
+      <c r="H47">
+        <v>0.12</v>
+      </c>
+      <c r="I47">
+        <v>0.13</v>
+      </c>
+      <c r="J47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L47">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M47">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N47">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O47">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P47">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q47">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R47">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S47">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T47">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U47">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V47">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W47">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X47">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y47">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z47">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA47">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB47">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC47">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD47">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE47">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF47">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG47">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH47">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI47">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ47">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK47">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL47">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM47">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN47">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO47">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP47">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ47">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR47">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS47">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT47">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU47">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>313</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+      <c r="G48">
+        <v>0.11</v>
+      </c>
+      <c r="H48">
+        <v>0.12</v>
+      </c>
+      <c r="I48">
+        <v>0.13</v>
+      </c>
+      <c r="J48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L48">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M48">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N48">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O48">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P48">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q48">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R48">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S48">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T48">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U48">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V48">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W48">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X48">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y48">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z48">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA48">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB48">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC48">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD48">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE48">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF48">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG48">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH48">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI48">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ48">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK48">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL48">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM48">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN48">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO48">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP48">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ48">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR48">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS48">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT48">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU48">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>314</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+      <c r="G49">
+        <v>0.11</v>
+      </c>
+      <c r="H49">
+        <v>0.12</v>
+      </c>
+      <c r="I49">
+        <v>0.13</v>
+      </c>
+      <c r="J49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K49">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L49">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M49">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N49">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O49">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P49">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q49">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R49">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S49">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T49">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U49">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V49">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W49">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X49">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y49">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z49">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA49">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB49">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC49">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD49">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE49">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF49">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG49">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH49">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI49">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ49">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK49">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL49">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM49">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN49">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO49">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP49">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ49">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR49">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS49">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT49">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU49">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>315</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
+        <v>0.11</v>
+      </c>
+      <c r="H50">
+        <v>0.12</v>
+      </c>
+      <c r="I50">
+        <v>0.13</v>
+      </c>
+      <c r="J50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K50">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L50">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M50">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N50">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O50">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P50">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q50">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R50">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S50">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T50">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U50">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V50">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W50">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X50">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y50">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z50">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA50">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB50">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC50">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD50">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE50">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF50">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG50">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH50">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI50">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ50">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK50">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL50">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM50">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN50">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO50">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP50">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ50">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR50">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS50">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT50">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU50">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>316</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <v>0.11</v>
+      </c>
+      <c r="H51">
+        <v>0.12</v>
+      </c>
+      <c r="I51">
+        <v>0.13</v>
+      </c>
+      <c r="J51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M51">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N51">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O51">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P51">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q51">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R51">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S51">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T51">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U51">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V51">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W51">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X51">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y51">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z51">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA51">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB51">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC51">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD51">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE51">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF51">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG51">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH51">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI51">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ51">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK51">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL51">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM51">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN51">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO51">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP51">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ51">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR51">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS51">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT51">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU51">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <v>0.11</v>
+      </c>
+      <c r="H52">
+        <v>0.12</v>
+      </c>
+      <c r="I52">
+        <v>0.13</v>
+      </c>
+      <c r="J52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L52">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M52">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N52">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O52">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P52">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q52">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R52">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S52">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T52">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U52">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V52">
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="W52">
+        <v>0.27000000000000013</v>
+      </c>
+      <c r="X52">
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="Y52">
+        <v>0.29000000000000015</v>
+      </c>
+      <c r="Z52">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="AA52">
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="AB52">
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="AC52">
+        <v>0.33000000000000018</v>
+      </c>
+      <c r="AD52">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="AE52">
+        <v>0.3500000000000002</v>
+      </c>
+      <c r="AF52">
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="AG52">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="AH52">
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="AI52">
+        <v>0.39000000000000024</v>
+      </c>
+      <c r="AJ52">
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="AK52">
+        <v>0.41000000000000025</v>
+      </c>
+      <c r="AL52">
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="AM52">
+        <v>0.43000000000000027</v>
+      </c>
+      <c r="AN52">
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="AO52">
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="AP52">
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="AQ52">
+        <v>0.47000000000000031</v>
+      </c>
+      <c r="AR52">
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="AS52">
+        <v>0.49000000000000032</v>
+      </c>
+      <c r="AT52">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="AU52">
+        <v>0.51000000000000034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53">
+        <v>0.11</v>
+      </c>
+      <c r="H53">
+        <v>0.12</v>
+      </c>
+      <c r="I53">
+        <v>0.13</v>
+      </c>
+      <c r="J53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M53">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N53">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O53">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P53">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q53">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R53">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S53">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T53">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT53">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU53">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+      <c r="G54">
+        <v>0.11</v>
+      </c>
+      <c r="H54">
+        <v>0.12</v>
+      </c>
+      <c r="I54">
+        <v>0.13</v>
+      </c>
+      <c r="J54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K54">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L54">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M54">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N54">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O54">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P54">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q54">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R54">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S54">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T54">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT54">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU54">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+      <c r="G55">
+        <v>0.11</v>
+      </c>
+      <c r="H55">
+        <v>0.12</v>
+      </c>
+      <c r="I55">
+        <v>0.13</v>
+      </c>
+      <c r="J55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M55">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N55">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O55">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P55">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q55">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R55">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S55">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T55">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT55">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU55">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
+      <c r="G56">
+        <v>0.11</v>
+      </c>
+      <c r="H56">
+        <v>0.12</v>
+      </c>
+      <c r="I56">
+        <v>0.13</v>
+      </c>
+      <c r="J56">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M56">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N56">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O56">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P56">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q56">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R56">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S56">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T56">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT56">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU56">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57">
+        <v>0.1</v>
+      </c>
+      <c r="G57">
+        <v>0.11</v>
+      </c>
+      <c r="H57">
+        <v>0.12</v>
+      </c>
+      <c r="I57">
+        <v>0.13</v>
+      </c>
+      <c r="J57">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K57">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M57">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N57">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O57">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P57">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q57">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R57">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S57">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T57">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT57">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU57">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <v>0.1</v>
+      </c>
+      <c r="G58">
+        <v>0.11</v>
+      </c>
+      <c r="H58">
+        <v>0.12</v>
+      </c>
+      <c r="I58">
+        <v>0.13</v>
+      </c>
+      <c r="J58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M58">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N58">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O58">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P58">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q58">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R58">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S58">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T58">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT58">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU58">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>0.1</v>
+      </c>
+      <c r="G59">
+        <v>0.11</v>
+      </c>
+      <c r="H59">
+        <v>0.12</v>
+      </c>
+      <c r="I59">
+        <v>0.13</v>
+      </c>
+      <c r="J59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M59">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O59">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P59">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q59">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R59">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S59">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T59">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT59">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU59">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60">
+        <v>0.1</v>
+      </c>
+      <c r="G60">
+        <v>0.11</v>
+      </c>
+      <c r="H60">
+        <v>0.12</v>
+      </c>
+      <c r="I60">
+        <v>0.13</v>
+      </c>
+      <c r="J60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M60">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N60">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O60">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P60">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q60">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R60">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S60">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T60">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT60">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU60">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61">
+        <v>0.1</v>
+      </c>
+      <c r="G61">
+        <v>0.11</v>
+      </c>
+      <c r="H61">
+        <v>0.12</v>
+      </c>
+      <c r="I61">
+        <v>0.13</v>
+      </c>
+      <c r="J61">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L61">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M61">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N61">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O61">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P61">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q61">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R61">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S61">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T61">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT61">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU61">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>0.1</v>
+      </c>
+      <c r="G62">
+        <v>0.11</v>
+      </c>
+      <c r="H62">
+        <v>0.12</v>
+      </c>
+      <c r="I62">
+        <v>0.13</v>
+      </c>
+      <c r="J62">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K62">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L62">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M62">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N62">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O62">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P62">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q62">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R62">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S62">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T62">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT62">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU62">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>311</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63">
+        <v>0.1</v>
+      </c>
+      <c r="G63">
+        <v>0.11</v>
+      </c>
+      <c r="H63">
+        <v>0.12</v>
+      </c>
+      <c r="I63">
+        <v>0.13</v>
+      </c>
+      <c r="J63">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L63">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M63">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N63">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O63">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P63">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q63">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R63">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S63">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T63">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT63">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU63">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64">
+        <v>0.1</v>
+      </c>
+      <c r="G64">
+        <v>0.11</v>
+      </c>
+      <c r="H64">
+        <v>0.12</v>
+      </c>
+      <c r="I64">
+        <v>0.13</v>
+      </c>
+      <c r="J64">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L64">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M64">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N64">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O64">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P64">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q64">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R64">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S64">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T64">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT64">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU64">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65">
+        <v>0.1</v>
+      </c>
+      <c r="G65">
+        <v>0.11</v>
+      </c>
+      <c r="H65">
+        <v>0.12</v>
+      </c>
+      <c r="I65">
+        <v>0.13</v>
+      </c>
+      <c r="J65">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M65">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N65">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O65">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P65">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q65">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R65">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S65">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T65">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT65">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU65">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66">
+        <v>0.1</v>
+      </c>
+      <c r="G66">
+        <v>0.11</v>
+      </c>
+      <c r="H66">
+        <v>0.12</v>
+      </c>
+      <c r="I66">
+        <v>0.13</v>
+      </c>
+      <c r="J66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K66">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L66">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M66">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N66">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O66">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P66">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q66">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R66">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S66">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T66">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT66">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU66">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>315</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67">
+        <v>0.1</v>
+      </c>
+      <c r="G67">
+        <v>0.11</v>
+      </c>
+      <c r="H67">
+        <v>0.12</v>
+      </c>
+      <c r="I67">
+        <v>0.13</v>
+      </c>
+      <c r="J67">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M67">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N67">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O67">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P67">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q67">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R67">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S67">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T67">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT67">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU67">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>0.11</v>
+      </c>
+      <c r="H68">
+        <v>0.12</v>
+      </c>
+      <c r="I68">
+        <v>0.13</v>
+      </c>
+      <c r="J68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K68">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L68">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M68">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N68">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O68">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P68">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q68">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R68">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S68">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T68">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT68">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU68">
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>61</v>
+      </c>
+      <c r="E69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69">
+        <v>0.1</v>
+      </c>
+      <c r="G69">
+        <v>0.11</v>
+      </c>
+      <c r="H69">
+        <v>0.12</v>
+      </c>
+      <c r="I69">
+        <v>0.13</v>
+      </c>
+      <c r="J69">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K69">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L69">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M69">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="N69">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O69">
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="P69">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="Q69">
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="R69">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="S69">
+        <v>0.23000000000000009</v>
+      </c>
+      <c r="T69">
+        <v>0.2400000000000001</v>
+      </c>
+      <c r="U69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="V69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="W69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="X69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Y69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Z69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AA69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AB69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AC69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AD69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AE69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AF69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AG69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AH69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AI69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AJ69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AK69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AL69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AM69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AN69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AO69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AP69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AQ69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AR69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AS69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AT69">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="AU69">
+        <v>0.25000000000000011</v>
       </c>
     </row>
   </sheetData>
